--- a/exports/31.xlsx
+++ b/exports/31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Banque</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Titulaire</t>
   </si>
   <si>
-    <t>Mr. Jack Smith Account Number: 000000012345</t>
+    <t>Me. Jack Smith</t>
   </si>
   <si>
     <t>Période</t>
@@ -52,75 +52,66 @@
     <t>Sens</t>
   </si>
   <si>
-    <t>03/01/2021</t>
-  </si>
-  <si>
-    <t>Capital City, on 12345-0123 Statement Period: to 123-555-5678 ACCOUNT SUMMARY Balance on March 1: $ Total money in: $10,273.39 Total money out: $10,510.07 Balance on April 1: $27,347.70 DESCRIPTION WITHDRAWAL DEPOSIT BALANCE Previous balance</t>
-  </si>
-  <si>
-    <t>27,584.38</t>
+    <t>03/02</t>
+  </si>
+  <si>
+    <t>Internet Bill 27,508.39</t>
+  </si>
+  <si>
+    <t>75.99</t>
+  </si>
+  <si>
+    <t>03/05</t>
+  </si>
+  <si>
+    <t>Electric Bill 27,254.71</t>
+  </si>
+  <si>
+    <t>253.68</t>
+  </si>
+  <si>
+    <t>03/06</t>
+  </si>
+  <si>
+    <t>Check No. 456.84 27,711.55</t>
+  </si>
+  <si>
+    <t>4598</t>
+  </si>
+  <si>
+    <t>03/10</t>
+  </si>
+  <si>
+    <t>Deposit from Credit Card Processor ,891.26 33,602.81</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>03/12</t>
+  </si>
+  <si>
+    <t>Payroll Run 29,708.06</t>
+  </si>
+  <si>
+    <t>3894.75</t>
+  </si>
+  <si>
+    <t>03/16</t>
+  </si>
+  <si>
+    <t>Debit Transaction ( 29,464.60</t>
+  </si>
+  <si>
+    <t>243.46</t>
   </si>
   <si>
     <t>Dr</t>
   </si>
   <si>
-    <t>03/02</t>
-  </si>
-  <si>
-    <t>Internet Bill 27,508.39</t>
-  </si>
-  <si>
-    <t>75.99</t>
-  </si>
-  <si>
-    <t>03/05</t>
-  </si>
-  <si>
-    <t>Electric Bill 27,254.71</t>
-  </si>
-  <si>
-    <t>253.68</t>
-  </si>
-  <si>
-    <t>03/06</t>
-  </si>
-  <si>
-    <t>Check No. 4598 27,711.55 Payment from Lisa Williams</t>
-  </si>
-  <si>
-    <t>456.84</t>
-  </si>
-  <si>
-    <t>03/10</t>
-  </si>
-  <si>
-    <t>Deposit from Credit Card Processor 33,602.81</t>
-  </si>
-  <si>
-    <t>5,891.26</t>
-  </si>
-  <si>
-    <t>Cr</t>
-  </si>
-  <si>
-    <t>03/12</t>
-  </si>
-  <si>
-    <t>Payroll Run 29,708.06</t>
-  </si>
-  <si>
-    <t>3,894.75</t>
-  </si>
-  <si>
-    <t>03/16</t>
-  </si>
-  <si>
-    <t>Debit Transaction 29,464.60 Main office Wholesale</t>
-  </si>
-  <si>
-    <t>243.46</t>
-  </si>
-  <si>
     <t>03/21</t>
   </si>
   <si>
@@ -130,37 +121,28 @@
     <t>750.00</t>
   </si>
   <si>
-    <t>Check No. 234 © 28,983.44 Payment From Mark Moore</t>
-  </si>
-  <si>
-    <t>268.84</t>
-  </si>
-  <si>
-    <t>03/26</t>
-  </si>
-  <si>
-    <t>Payroll Run 25,240.21</t>
-  </si>
-  <si>
-    <t>3,743.23</t>
+    <t>Check No. 28,983.44</t>
+  </si>
+  <si>
+    <t>234268.84</t>
   </si>
   <si>
     <t>03/28</t>
   </si>
   <si>
-    <t>Deposit 28,896.66</t>
-  </si>
-  <si>
-    <t>3,656.45</t>
+    <t>Deposit ,656.45 28,896.66</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>03/29</t>
   </si>
   <si>
-    <t>Debit Transaction 27,347.70 ‘ABC Business Supplies Ending balance 27,34 Sewmenme ened PATRIOT</t>
-  </si>
-  <si>
-    <t>1,548.96</t>
+    <t>Debit Transaction ,548.96 27,347.70</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -492,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,40 +536,40 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -601,18 +583,18 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -626,24 +608,21 @@
       <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -662,30 +641,8 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
+      <c r="D17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
